--- a/Planning/planning_ML_en_data.xlsx
+++ b/Planning/planning_ML_en_data.xlsx
@@ -1,44 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\school\ADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ML_DA_REPO\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763909C-1060-49B2-A9A2-CA07450674BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958E770-53AC-4471-8C55-E3BE9C70886F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" activeTab="2" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planning" sheetId="1" r:id="rId1"/>
+    <sheet name="Verbeterpunten" sheetId="2" r:id="rId2"/>
+    <sheet name="Data verdeling" sheetId="3" r:id="rId3"/>
+    <sheet name="Beoordeling 1" sheetId="4" r:id="rId4"/>
+    <sheet name=" Beoordeling 2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="182">
   <si>
     <t>Planning</t>
   </si>
@@ -227,13 +218,370 @@
   </si>
   <si>
     <t>OVERAL MOETEN BRONNEN, COMMENTS, DOCSTRINGS EN UITGEBREIDE UITLEG!!!</t>
+  </si>
+  <si>
+    <t>Bij goede bronverwijzing en toevoegen van bevindingen, conclusies en aanbevelingen op weg naar een mooi cijfer.</t>
+  </si>
+  <si>
+    <t>Total score</t>
+  </si>
+  <si>
+    <t>Algemene feedback</t>
+  </si>
+  <si>
+    <t>Behaald</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>Mooie start met definieren van classes. Graag volgende keer een docstring erbij. We hadden veel moeite om te herleiden hoe de klasses werkten. Het is ook niet mooi om ml  "hard" te coderen in de functie make_predictions. Literatuurlijst ontbreekt en in de tekst staan vrijwel geen bronnen. Vooral bij het wiskundige deel.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>Voldoet aan randvoorwaarden (zie opdrachtbeschrijving)?</t>
+  </si>
+  <si>
+    <t>Bonuspunten</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>zijn er niet</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Aanbeveling sluit aan op conclusie</t>
+  </si>
+  <si>
+    <t>Is er niet</t>
+  </si>
+  <si>
+    <t>Conclusie gebaseerd op bevindingen</t>
+  </si>
+  <si>
+    <t>C&amp;A</t>
+  </si>
+  <si>
+    <t>Geen overzicht van bevindingen</t>
+  </si>
+  <si>
+    <t>Inzicht geven</t>
+  </si>
+  <si>
+    <t>Bevindingen</t>
+  </si>
+  <si>
+    <t>Zie eerdere opmerkingen over f1-score</t>
+  </si>
+  <si>
+    <t>Toepassing en tuning</t>
+  </si>
+  <si>
+    <t>Geen uitleg</t>
+  </si>
+  <si>
+    <t>Uitleg</t>
+  </si>
+  <si>
+    <t>Model naar keuze</t>
+  </si>
+  <si>
+    <t>Niet toegepast</t>
+  </si>
+  <si>
+    <t>Gemiddeldes worden gebruikt bij regressie, niet bij classificatie</t>
+  </si>
+  <si>
+    <t>Uitleg &amp; Voting</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Goed uitgelegd.</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Regularisatie</t>
+  </si>
+  <si>
+    <t>Loss Functie</t>
+  </si>
+  <si>
+    <t>De kernel trick is niet volledig uitgelegd. Geen formules gegeven.</t>
+  </si>
+  <si>
+    <t>Kernel trick</t>
+  </si>
+  <si>
+    <t>Goed uitgelegd maar geen rekenvoorbeeld gegeven.</t>
+  </si>
+  <si>
+    <t>Uitleg model</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Duidelijke uitleg</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Ook weer zeer lage f1, maar zie geen fouten in de toepassing.</t>
+  </si>
+  <si>
+    <t>Pruning is niet benoemd.</t>
+  </si>
+  <si>
+    <t>Performance &amp; pruning</t>
+  </si>
+  <si>
+    <t>De uitleg is gebaseerd op een regressieboom, terwijl dit een classificatieproject is.</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>De f1 score is erg laag, maar ik kan niet achterhalen waar het is fout gegaan.</t>
+  </si>
+  <si>
+    <t>De voordelen worden benoemt, maar niet vergeleken met andere tree based modellen zoals gb.</t>
+  </si>
+  <si>
+    <t>Uitleg benoemt bagging maar niet dat er voor iedere tree een beperkt aantal features wordt gebruikt.</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Goed uitgelegd</t>
+  </si>
+  <si>
+    <t>Pruning</t>
+  </si>
+  <si>
+    <t>Lijkt goed uitgevoerd, maar kan niet achterhalen waarom f1 zo laag is.</t>
+  </si>
+  <si>
+    <t>Splitsingscriteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De werking is niet beschreven. Er is alleen beschreven wat de verschillende componenten zijn. </t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>het lijkt goed te zijn toegepast, maar de f1 scores zijn opvallend  laag en we kunnen bijvoorbeeld niet zien bij welke penalty jullie model het beste presteert. De class die jullie gebruiken is lastig te begrijpen zonder docstring.  Ook is C=1 de hoogste waarde in jullie parameter grid. Het is de moeite waard om te onderzoeken of het model beter wordt bij hogere waardes van C. Bij de meeste andere groepen lag de f1 score hoger bij een andere waarde van C.</t>
+  </si>
+  <si>
+    <t>Goede uitleg, maar ik mis een eenvoudig rekenvoorbeeld van gradient descent.</t>
+  </si>
+  <si>
+    <t>Gradient Descent</t>
+  </si>
+  <si>
+    <t>Loss function</t>
+  </si>
+  <si>
+    <t>Logistische regressie is niet alleen bedoeld voor binaire uitkomsten. Je kunt het ook voor meerdere categorieën gebruiken. Maar verder een prima uitleg.</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Keuze niet beschreven in ingeleverde versie</t>
+  </si>
+  <si>
+    <t>Keuze en onderbouwing metric</t>
+  </si>
+  <si>
+    <t>Alle formules toegelicht</t>
+  </si>
+  <si>
+    <t>Uitleg formules</t>
+  </si>
+  <si>
+    <t>Evaluatie</t>
+  </si>
+  <si>
+    <t>Jullie hebben passende visualisaties gebruikt om de relaties te onderzoeken. De lijnplots met betrouwbaarheidsintervallen en de violinplots voegen  veel toe. De plots zijn ook goed geinterpreteerd. Alleen de interpretatie van BMI ontbreekt.</t>
+  </si>
+  <si>
+    <t>Keuze voor visualisaties en interpretatie</t>
+  </si>
+  <si>
+    <t>Alle onderdelen uitgevoerd. Jullie kiezen er uiteindelijk voor om veel rijen te verwijderen omdat "wij geen vertrouwen hebben goede modellen te kunnen maken als we geen goede data invoeren in de modellen. Zoals het beroemde gezegde "Garbage in = garbage out"." Het verwijderen van rijen in de test set is niet mogelijk en ook daar heb je te maken met dezelfde "garbage in". Het lijkt daarom logischer om op een andere manier op te schonen (met een imputer bijvoorbeeld).</t>
+  </si>
+  <si>
+    <t>Uitvoering opdrachten</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Toelichting</t>
+  </si>
+  <si>
+    <t>Punten</t>
+  </si>
+  <si>
+    <t>T/W</t>
+  </si>
+  <si>
+    <t>Sub-onderdeel</t>
+  </si>
+  <si>
+    <t>Onderdeel</t>
+  </si>
+  <si>
+    <t>Behaalde</t>
+  </si>
+  <si>
+    <t>W=wiskunde</t>
+  </si>
+  <si>
+    <t>T=toepassing</t>
+  </si>
+  <si>
+    <t>Westen, jesse van der</t>
+  </si>
+  <si>
+    <t>Olieman, Mark</t>
+  </si>
+  <si>
+    <t>Eising, Daan</t>
+  </si>
+  <si>
+    <t>Toelichting bij afwijking van groepscijfer</t>
+  </si>
+  <si>
+    <t>Individueel cijfer</t>
+  </si>
+  <si>
+    <t>Groepscijfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groepsnummer: </t>
+  </si>
+  <si>
+    <t>Beoordelingsformulier</t>
+  </si>
+  <si>
+    <t>Er zitten een aantal goede dingen in maar er ontbreekt nog veel.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Een aanbeveling voor de verhuurder ontbreekt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een zeer beperkte conclusie. </t>
+  </si>
+  <si>
+    <t>Van de meeste modellen zijn geen bevindingen. We weten ook niet wat de impact op Kaggle was.</t>
+  </si>
+  <si>
+    <t>Het hybride model is goed uitgelegd. We zien echter geen resultaten van de functie die jullie ervoor hebben gemaakt. We kunnen dus niet beoordelen of het goed werkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toepassing en uitleg hybride model </t>
+  </si>
+  <si>
+    <t>Je interpreteerde de Dickey-Fuller-test precies andersom. Julie weten dat je timeseriesdata een duidelijke trend en seizoensinvloeden vertonen, dus deze zijn uiteraard niet stationair! Het zou voordeliger zijn geweest om deze test op de residuen uit te voeren. De verklaring voor het model is prima, maar net als voorheen geef je geen verklaring voor je resultaten.</t>
+  </si>
+  <si>
+    <t>Toepassing en uitleg SARIMAX en andere tijdreeks model</t>
+  </si>
+  <si>
+    <t>Lineaire regressie is goed toegepast inclusief grid search gebruikmakend van de functie train_and_evaluate_model. In deze functie is erg veel 'hard gecodeerd' waaronder het model dat je gebruikt. Er zijn geen parameters waarmee je kunt experimenteren. Ook wordt er geen times series cross validation toegepast. De overige modellen zijn zeer beperkt tot niet uitgelegd. SVR is in het notebook uitgevoerd, maar de overige modellen niet. We hebben geen inzicht in de resulaten daarvan.</t>
+  </si>
+  <si>
+    <t>Toepassing en uitleg modellen</t>
+  </si>
+  <si>
+    <t>Je hebt niet uitgelegd wat je bedoelt met "voorspellingen van meerdere modellen samen te nemen".  Je noemde verschillende termen, zoals bagging, boosting en de centrale limietstelling, maar we hadden een of twee zinnen verwacht waarin deze termen zouden worden uitgelegd.</t>
+  </si>
+  <si>
+    <t>Ensemble model: wiskundige uitleg</t>
+  </si>
+  <si>
+    <t>Prima uitleg!</t>
+  </si>
+  <si>
+    <t>Lineaire regressie: wiskundige uitleg (o.a. loss functies en regularisatie)</t>
+  </si>
+  <si>
+    <t>Modelleren</t>
+  </si>
+  <si>
+    <t>We zien geen iteratief proces waarbij er steeds features worden toegevoegd en gekeken wat de impact daarvan op de resultaten is.</t>
+  </si>
+  <si>
+    <t>Iteratief proces</t>
+  </si>
+  <si>
+    <t>Er wordt niets vermeld over de impact van andere tijdsfactoren, zoals andere gecorreleerde features, of de stationariteit van de residuen.</t>
+  </si>
+  <si>
+    <t>Overige tijdfeatures</t>
+  </si>
+  <si>
+    <t>Hier dezelfde opmerking. Wat vertelt je analyse je over je gegevens? Welk inzicht geeft het je, en welke functionaliteiten kun je hiermee engineeren? We missen dit cruciale aspect. De enige conclusie die je hieruit trek is "Toen hebben wij geconcludeerd dat er seizoens patronen aanwezig zijn in de time series." en dat is niet voldoende!</t>
+  </si>
+  <si>
+    <t>Cycli (o.a. (Partial) Auto Correlatie en lags)</t>
+  </si>
+  <si>
+    <t>Goed gedaan met de Fourier-analyse, maar we missen een uitleg van je resultaten. Hoe heb je bepaald welke sin- en cosinus-functies je moest gebruiken? Wat vertelt de vergelijking tussen de opgeschoonde Fourier-inverse en het origineel je? Jullie hebben een goed, breed overzicht van deze analyse gegeven, maar de resultaten van je eigen dataset niet vermeld.</t>
+  </si>
+  <si>
+    <t>Seizoenspatronen (Fourier analyse)</t>
+  </si>
+  <si>
+    <t>Jullie hebben de trend correct gedefinieerd en de juiste formule gebruikt, maar jullie hebben je keuze voor de venstergrootte van 53 en vervolgens 12 niet toegelicht. Hoe zijn jullie tot deze waarden gekomen?</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>Timeseries feature engineering</t>
+  </si>
+  <si>
+    <t>Hetzelfde als hierboven geldt ook hier. Goede plots maar jullie benoemen niet de belangrijkste patronen. Bijvoorbeeld het patroon per dag waarin je op bepaalde momenten pieken ziet.</t>
+  </si>
+  <si>
+    <t>Keuze voor visualisaties  tijdreeks features en interpretatie</t>
+  </si>
+  <si>
+    <t>Jullie hebben grotendeels de juiste plots getoond en eronder benoemen jullie wat dingen die jullie opvallen. Jullie benoemen echter niet de belangrijkste patronen als bevindingen. Bij mooi weer stijgen bijvoorbeeld de verhuuraantallen.</t>
+  </si>
+  <si>
+    <t>Keuze voor visualisaties  reguliere features en interpretatie</t>
+  </si>
+  <si>
+    <t>Latić, sami</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,16 +652,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -321,11 +706,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,9 +747,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,22 +1096,22 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:L15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.125" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +1119,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -725,7 +1137,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -737,7 +1149,7 @@
       <c r="F3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -746,13 +1158,13 @@
       <c r="F4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -764,7 +1176,7 @@
       <c r="F6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -774,13 +1186,13 @@
       <c r="H7" s="1"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -792,7 +1204,7 @@
       <c r="F9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -802,13 +1214,13 @@
       <c r="F10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -820,18 +1232,18 @@
       <c r="F12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="F14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -841,28 +1253,28 @@
       <c r="F15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -871,10 +1283,10 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -883,40 +1295,40 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6">
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6">
       <c r="F34" s="4"/>
     </row>
   </sheetData>
@@ -933,19 +1345,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="54.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="43.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="6"/>
+    <col min="5" max="5" width="54.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -959,7 +1371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="71.25">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -973,7 +1385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="42.75">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -987,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="85.5">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1001,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.5">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1015,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1030,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="99.75">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1044,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="42.75">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1058,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -1074,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -1082,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1090,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" s="6">
         <f>SUM(B3:B13)</f>
         <v>33</v>
@@ -1135,13 +1547,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.25">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -1149,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1157,22 +1569,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1180,22 +1592,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="33.75">
       <c r="B13" s="16" t="s">
         <v>62</v>
       </c>
@@ -1203,4 +1615,1314 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2CE992-D87D-4061-9A86-11DC9077126A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="23" t="str">
+        <f>IF($E$45="Y",$E$47/10,"NVD")</f>
+        <v>NVD</v>
+      </c>
+      <c r="C3" s="23" t="str">
+        <f>B3</f>
+        <v>NVD</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="23" t="str">
+        <f>IF($E$45="Y",$E$47/10,"NVD")</f>
+        <v>NVD</v>
+      </c>
+      <c r="C4" s="23" t="str">
+        <f>B4</f>
+        <v>NVD</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="23" t="str">
+        <f>IF($E$45="Y",$E$47/10,"NVD")</f>
+        <v>NVD</v>
+      </c>
+      <c r="C5" s="23" t="str">
+        <f>B5</f>
+        <v>NVD</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="str">
+        <f>IF($E$45="Y",$E$47/10,"NVD")</f>
+        <v>NVD</v>
+      </c>
+      <c r="C6" s="23" t="str">
+        <f>B6</f>
+        <v>NVD</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1">
+      <c r="A10" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85.5">
+      <c r="A11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20">
+        <v>4</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42.75">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25">
+      <c r="A13" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="21">
+        <v>3</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5">
+      <c r="A15" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6</v>
+      </c>
+      <c r="E15" s="20">
+        <v>4</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5</v>
+      </c>
+      <c r="E16" s="20">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="21">
+        <v>6</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="21">
+        <v>5</v>
+      </c>
+      <c r="E18" s="20">
+        <v>4</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="85.5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5">
+      <c r="A20" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.5">
+      <c r="A24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="21">
+        <v>2</v>
+      </c>
+      <c r="E26" s="20">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25">
+      <c r="A27" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="21">
+        <v>2</v>
+      </c>
+      <c r="E29" s="20">
+        <v>2</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25">
+      <c r="A30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="21">
+        <v>2</v>
+      </c>
+      <c r="E31" s="20">
+        <v>2</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25">
+      <c r="A32" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="21">
+        <v>5</v>
+      </c>
+      <c r="E32" s="20">
+        <v>3</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="21">
+        <v>6</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="21">
+        <v>5</v>
+      </c>
+      <c r="E34" s="20">
+        <v>5</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="21">
+        <v>5</v>
+      </c>
+      <c r="E35" s="20">
+        <v>5</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="21">
+        <v>2</v>
+      </c>
+      <c r="E36" s="20">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25">
+      <c r="A37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="21">
+        <v>2</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25">
+      <c r="A39" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="21">
+        <v>2</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="21">
+        <v>2</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25">
+      <c r="A41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="21">
+        <v>5</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25">
+      <c r="A42" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="21">
+        <v>5</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="21">
+        <v>5</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25">
+      <c r="A44" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21">
+        <v>5</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6" ht="57">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="D47" s="17">
+        <f>IF(SUM(D11:D44)&gt;100,100,SUM(D11:D44))</f>
+        <v>100</v>
+      </c>
+      <c r="E47" s="19">
+        <f>IF(SUM(E11:E44)&gt;100,100,SUM(E11:E44))</f>
+        <v>58</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CABC002-87F8-44F6-8685-442B529E92C4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="23">
+        <f>$E$29/10</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C3" s="23">
+        <f>B3</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="23">
+        <f>$E$29/10</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C4" s="23">
+        <f>B4</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="23">
+        <f>$E$29/10</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5" s="23">
+        <f>B5</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="23">
+        <f>$E$29/10</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C6" s="23">
+        <f>B6</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1">
+      <c r="A10" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42.75">
+      <c r="A11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42.75">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75">
+      <c r="A13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="21">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="71.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="21">
+        <v>10</v>
+      </c>
+      <c r="E14" s="20">
+        <v>7</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="57">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="21">
+        <v>5</v>
+      </c>
+      <c r="E15" s="20">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="21">
+        <v>5</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25">
+      <c r="A18" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="21">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20">
+        <v>10</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="21">
+        <v>5</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="85.5">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="21">
+        <v>20</v>
+      </c>
+      <c r="E20" s="20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="71.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="20">
+        <v>5</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.5">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="21">
+        <v>5</v>
+      </c>
+      <c r="E22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5">
+      <c r="A23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="21">
+        <v>5</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25">
+      <c r="A24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="21">
+        <v>3</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="21">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="21">
+        <v>5</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.25">
+      <c r="A29" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="D29" s="17">
+        <f>SUM(D11:D25)</f>
+        <v>100</v>
+      </c>
+      <c r="E29" s="19">
+        <f>SUM(E11:E26)</f>
+        <v>46</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planning/planning_ML_en_data.xlsx
+++ b/Planning/planning_ML_en_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ML_DA_REPO\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958E770-53AC-4471-8C55-E3BE9C70886F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033865F2-300F-40D6-B855-70F01C98EE29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" activeTab="2" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="1" activeTab="2" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -1628,7 +1628,7 @@
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
@@ -1643,7 +1643,7 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="23" t="s">
         <v>148</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>144</v>
       </c>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="23" t="s">
         <v>143</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>142</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="23"/>
       <c r="B6" s="23" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
@@ -1711,19 +1711,19 @@
       </c>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6">
       <c r="C9" t="s">
         <v>140</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1">
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A10" s="22" t="s">
         <v>138</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
         <v>128</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="21"/>
       <c r="B14" s="21" t="s">
         <v>125</v>
@@ -1850,7 +1850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="21"/>
       <c r="B16" s="21" t="s">
         <v>121</v>
@@ -1868,7 +1868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
         <v>120</v>
@@ -1886,7 +1886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="21"/>
       <c r="B18" s="21" t="s">
         <v>94</v>
@@ -1942,7 +1942,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
         <v>115</v>
@@ -1960,7 +1960,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="21"/>
       <c r="B22" s="21" t="s">
         <v>84</v>
@@ -1978,7 +1978,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="21"/>
       <c r="B23" s="21" t="s">
         <v>113</v>
@@ -2034,7 +2034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="21"/>
       <c r="B26" s="21" t="s">
         <v>84</v>
@@ -2052,7 +2052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="21" t="s">
         <v>107</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="21"/>
       <c r="B28" s="21" t="s">
         <v>105</v>
@@ -2090,7 +2090,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="21"/>
       <c r="B29" s="21" t="s">
         <v>84</v>
@@ -2108,7 +2108,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="21" t="s">
         <v>102</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="21"/>
       <c r="B31" s="21" t="s">
         <v>84</v>
@@ -2146,7 +2146,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="21" t="s">
         <v>100</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="21"/>
       <c r="B33" s="21" t="s">
         <v>97</v>
@@ -2184,7 +2184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="21"/>
       <c r="B34" s="21" t="s">
         <v>95</v>
@@ -2202,7 +2202,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
         <v>94</v>
@@ -2220,7 +2220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="21"/>
       <c r="B36" s="21" t="s">
         <v>84</v>
@@ -2238,7 +2238,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="21" t="s">
         <v>91</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="21"/>
       <c r="B38" s="21" t="s">
         <v>84</v>
@@ -2276,7 +2276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="21" t="s">
         <v>87</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="21"/>
       <c r="B40" s="21" t="s">
         <v>84</v>
@@ -2314,7 +2314,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="21" t="s">
         <v>82</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="21" t="s">
         <v>79</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="21"/>
       <c r="B43" s="21" t="s">
         <v>76</v>
@@ -2372,7 +2372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="21" t="s">
         <v>73</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2433,7 +2433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -2456,7 +2456,7 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.125" bestFit="1" customWidth="1"/>
@@ -2471,7 +2471,7 @@
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="23" t="s">
         <v>148</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
         <v>144</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="23" t="s">
         <v>143</v>
       </c>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
         <v>142</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="23" t="s">
         <v>181</v>
       </c>
@@ -2541,19 +2541,19 @@
       </c>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6">
       <c r="C9" t="s">
         <v>140</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1">
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="15">
       <c r="A10" s="22" t="s">
         <v>138</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
         <v>165</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="21" t="s">
         <v>79</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="21"/>
       <c r="B25" s="21" t="s">
         <v>76</v>
@@ -2864,7 +2864,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="21"/>
       <c r="B26" s="21" t="s">
         <v>73</v>
@@ -2878,7 +2878,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>

--- a/Planning/planning_ML_en_data.xlsx
+++ b/Planning/planning_ML_en_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ML_DA_REPO\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033865F2-300F-40D6-B855-70F01C98EE29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E335597-6608-4C95-B81E-9D0EEE5EFC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="1" activeTab="2" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="1" activeTab="3" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="186">
   <si>
     <t>Planning</t>
   </si>
@@ -575,13 +575,43 @@
   </si>
   <si>
     <t>Latić, sami</t>
+  </si>
+  <si>
+    <t>Toelichting herkasning</t>
+  </si>
+  <si>
+    <t>In huidige versie is het beschreven, nu kijken of het volledig is.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gaan we niet aanpassen, is teveel we</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rk.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bronnen nog op volgorde zetten.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +713,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -698,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -721,11 +757,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -759,6 +806,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1543,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F6EBB-B8D1-4E0C-B030-E9D7B5AAC157}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1622,810 +1702,826 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.75" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="73.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="49.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="G1" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="31" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="31" t="str">
         <f>B3</f>
         <v>NVD</v>
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="23" t="str">
+      <c r="B4" s="31" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C4" s="23" t="str">
+      <c r="C4" s="31" t="str">
         <f>B4</f>
         <v>NVD</v>
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="31" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="31" t="str">
         <f>B5</f>
         <v>NVD</v>
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="str">
+    <row r="6" spans="1:7">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="31" t="str">
         <f>B6</f>
         <v>NVD</v>
       </c>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="C9" t="s">
+    <row r="9" spans="1:7">
+      <c r="C9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="15">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:7" s="8" customFormat="1" ht="15">
+      <c r="A10" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="33" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="85.5">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="85.5">
+      <c r="A11" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="21">
-        <v>5</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="35">
+        <v>5</v>
+      </c>
+      <c r="E11" s="18">
         <v>4</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.75">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21" t="s">
+      <c r="G11" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42.75">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="21">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="35">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18">
         <v>4</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="35">
         <v>2</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:7" ht="28.5">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="35">
         <v>3</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>0</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5">
-      <c r="A15" s="21" t="s">
+      <c r="G14" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5">
+      <c r="A15" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="35">
         <v>6</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>4</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="21">
-        <v>5</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="35">
+        <v>5</v>
+      </c>
+      <c r="E16" s="18">
         <v>4</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="35">
         <v>6</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>2</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="21">
-        <v>5</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="35">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18">
         <v>4</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="85.5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21" t="s">
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="85.5">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="35">
         <v>2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.5">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:7" ht="28.5">
+      <c r="A20" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="35">
         <v>1</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <v>0</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="35">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="35">
         <v>2</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>2</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="35">
         <v>1</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <v>1</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:7" ht="28.5">
+      <c r="A24" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="35">
         <v>1</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>0.5</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:7" ht="28.5">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="35">
         <v>1</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>0.5</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="35">
         <v>2</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="18">
         <v>2</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="35">
         <v>1</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>0.5</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="35">
         <v>1</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>0.5</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="35">
         <v>2</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>2</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="35">
         <v>1</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>1</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="35">
         <v>2</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>2</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="21">
-        <v>5</v>
-      </c>
-      <c r="E32" s="20">
+      <c r="D32" s="35">
+        <v>5</v>
+      </c>
+      <c r="E32" s="18">
         <v>3</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="35">
         <v>6</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>3</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="21">
-        <v>5</v>
-      </c>
-      <c r="E34" s="20">
+      <c r="D34" s="35">
+        <v>5</v>
+      </c>
+      <c r="E34" s="18">
         <v>5</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="21">
-        <v>5</v>
-      </c>
-      <c r="E35" s="20">
+      <c r="D35" s="35">
+        <v>5</v>
+      </c>
+      <c r="E35" s="18">
         <v>5</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="35">
         <v>2</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>2</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="35">
         <v>1</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>0</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="35">
         <v>2</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="18">
         <v>0</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="35">
         <v>2</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="18">
         <v>0</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="35">
         <v>2</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>2</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="21">
-        <v>5</v>
-      </c>
-      <c r="E41" s="20">
+      <c r="D41" s="35">
+        <v>5</v>
+      </c>
+      <c r="E41" s="18">
         <v>0</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="21">
-        <v>5</v>
-      </c>
-      <c r="E42" s="20">
+      <c r="D42" s="35">
+        <v>5</v>
+      </c>
+      <c r="E42" s="18">
         <v>0</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="21">
-        <v>5</v>
-      </c>
-      <c r="E43" s="20">
+      <c r="D43" s="35">
+        <v>5</v>
+      </c>
+      <c r="E43" s="18">
         <v>0</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21">
-        <v>5</v>
-      </c>
-      <c r="E44" s="20">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35">
+        <v>5</v>
+      </c>
+      <c r="E44" s="18">
         <v>0</v>
       </c>
       <c r="F44" s="18"/>
     </row>
-    <row r="45" spans="1:6" ht="57">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7" ht="57">
+      <c r="A45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" t="s">
+      <c r="G45" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="D47" s="17">
+      <c r="B47" s="36"/>
+      <c r="D47" s="34">
         <f>IF(SUM(D11:D44)&gt;100,100,SUM(D11:D44))</f>
         <v>100</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="36">
         <f>IF(SUM(E11:E44)&gt;100,100,SUM(E11:E44))</f>
         <v>58</v>
       </c>
@@ -2433,11 +2529,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning/planning_ML_en_data.xlsx
+++ b/Planning/planning_ML_en_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ML_DA_REPO\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E335597-6608-4C95-B81E-9D0EEE5EFC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95523142-A64C-49B9-8DC7-724BD43A5FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="1" activeTab="3" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
   </bookViews>
@@ -583,13 +583,10 @@
     <t>In huidige versie is het beschreven, nu kijken of het volledig is.</t>
   </si>
   <si>
+    <t>Bronnen nog op volgorde zetten.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Gaan we niet aanpassen, is teveel we</t>
     </r>
     <r>
@@ -602,9 +599,6 @@
       </rPr>
       <t>rk.</t>
     </r>
-  </si>
-  <si>
-    <t>Bronnen nog op volgorde zetten.</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1698,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1860,7 +1854,7 @@
         <v>131</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75">
@@ -2495,7 +2489,7 @@
         <v>68</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2548,7 +2542,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/Planning/planning_ML_en_data.xlsx
+++ b/Planning/planning_ML_en_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ML_DA_REPO\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ac456889028314a/Documenten/GitHub/ML_DA_REPO/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95523142-A64C-49B9-8DC7-724BD43A5FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{95523142-A64C-49B9-8DC7-724BD43A5FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4877E397-3102-45A2-B0C1-8523F89B44D5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" firstSheet="1" activeTab="3" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{9D050949-7D77-480E-BD6D-F7AF01E7DFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -605,7 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,7 +725,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +735,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,16 +794,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,7 +812,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -833,6 +845,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1173,19 +1186,19 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.125" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1206,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1208,10 +1221,10 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1236,7 @@
       <c r="F3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1232,13 +1245,13 @@
       <c r="F4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1263,7 @@
       <c r="F6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1260,13 +1273,13 @@
       <c r="H7" s="1"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1291,7 @@
       <c r="F9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1288,13 +1301,13 @@
       <c r="F10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1306,18 +1319,18 @@
       <c r="F12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1327,28 +1340,28 @@
       <c r="F15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1357,10 +1370,10 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1369,40 +1382,40 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="4"/>
     </row>
   </sheetData>
@@ -1419,191 +1432,189 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="6"/>
-    <col min="5" max="5" width="54.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="6"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="71.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.75">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="85.5">
-      <c r="A4" s="6" t="s">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.5">
-      <c r="A5" s="7" t="s">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29.25">
-      <c r="A6" s="6" t="s">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="1"/>
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="99.75">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.75">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f>SUM(B3:B13)</f>
         <v>33</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <f>SUM(B14, 58)/10</f>
         <v>9.1</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <f>SUM(F2:F13)</f>
         <v>40</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <f>SUM(F14, 46)/10</f>
         <v>8.6</v>
       </c>
@@ -1621,44 +1632,44 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1666,23 +1677,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33.75">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:3" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1698,111 +1709,111 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="73.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="73.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="G1" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="31" t="str">
+      <c r="B3" s="26" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C3" s="26" t="str">
         <f>B3</f>
         <v>NVD</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="31" t="s">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="31" t="str">
+      <c r="B4" s="26" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C4" s="31" t="str">
+      <c r="C4" s="26" t="str">
         <f>B4</f>
         <v>NVD</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="31" t="str">
+      <c r="B5" s="26" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="26" t="str">
         <f>B5</f>
         <v>NVD</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="str">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="str">
         <f>IF($E$45="Y",$E$47/10,"NVD")</f>
         <v>NVD</v>
       </c>
-      <c r="C6" s="31" t="str">
+      <c r="C6" s="26" t="str">
         <f>B6</f>
         <v>NVD</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34" t="s">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>140</v>
       </c>
@@ -1813,669 +1824,669 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="15">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" ht="85.5">
-      <c r="A11" s="35" t="s">
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="35">
-        <v>5</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="30">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13">
         <v>4</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="35">
-        <v>5</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="30">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13">
         <v>4</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="30">
         <v>2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="30">
         <v>3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="13" t="s">
         <v>124</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.5">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="30">
         <v>6</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="13">
         <v>4</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="35">
-        <v>5</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="30">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="30">
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="35">
-        <v>5</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="30">
+        <v>5</v>
+      </c>
+      <c r="E18" s="13">
         <v>4</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="85.5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35" t="s">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="30">
         <v>2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="13">
         <v>1</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="30">
         <v>1</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="30">
         <v>1</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="13">
         <v>1</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="30">
         <v>2</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="13">
         <v>2</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="30">
         <v>1</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.5">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="30">
         <v>1</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="13">
         <v>0.5</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="30">
         <v>1</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="13">
         <v>0.5</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="30">
         <v>2</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="13">
         <v>2</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="30">
         <v>1</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="13">
         <v>0.5</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="30">
         <v>1</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="13">
         <v>0.5</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="30">
         <v>2</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="13">
         <v>2</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="30">
         <v>1</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="30">
         <v>2</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="13">
         <v>2</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="35" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="35">
-        <v>5</v>
-      </c>
-      <c r="E32" s="18">
+      <c r="D32" s="30">
+        <v>5</v>
+      </c>
+      <c r="E32" s="13">
         <v>3</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="30">
         <v>6</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="13">
         <v>3</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="35">
-        <v>5</v>
-      </c>
-      <c r="E34" s="18">
-        <v>5</v>
-      </c>
-      <c r="F34" s="18" t="s">
+      <c r="D34" s="30">
+        <v>5</v>
+      </c>
+      <c r="E34" s="13">
+        <v>5</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="35">
-        <v>5</v>
-      </c>
-      <c r="E35" s="18">
-        <v>5</v>
-      </c>
-      <c r="F35" s="18" t="s">
+      <c r="D35" s="30">
+        <v>5</v>
+      </c>
+      <c r="E35" s="13">
+        <v>5</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="30">
         <v>2</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="13">
         <v>2</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="30">
         <v>1</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="13">
         <v>0</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="30">
         <v>2</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="13">
         <v>0</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="30">
         <v>2</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="13">
         <v>0</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="30">
         <v>2</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="13">
         <v>2</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="35">
-        <v>5</v>
-      </c>
-      <c r="E41" s="18">
+      <c r="D41" s="30">
+        <v>5</v>
+      </c>
+      <c r="E41" s="13">
         <v>0</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="35">
-        <v>5</v>
-      </c>
-      <c r="E42" s="18">
+      <c r="D42" s="30">
+        <v>5</v>
+      </c>
+      <c r="E42" s="13">
         <v>0</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35" t="s">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="35">
-        <v>5</v>
-      </c>
-      <c r="E43" s="18">
+      <c r="D43" s="30">
+        <v>5</v>
+      </c>
+      <c r="E43" s="13">
         <v>0</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="35" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35">
-        <v>5</v>
-      </c>
-      <c r="E44" s="18">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30">
+        <v>5</v>
+      </c>
+      <c r="E44" s="13">
         <v>0</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" ht="57">
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>71</v>
       </c>
@@ -2485,49 +2496,49 @@
       <c r="E45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="13" t="s">
         <v>68</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="36" t="s">
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="D47" s="34">
+      <c r="B47" s="31"/>
+      <c r="D47" s="29">
         <f>IF(SUM(D11:D44)&gt;100,100,SUM(D11:D44))</f>
         <v>100</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="31">
         <f>IF(SUM(E11:E44)&gt;100,100,SUM(E11:E44))</f>
         <v>58</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2540,110 +2551,110 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.75" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="18">
         <f>$E$29/10</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="18">
         <f>B3</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="18">
         <f>$E$29/10</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <f>B4</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="18">
         <f>$E$29/10</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="18">
         <f>B5</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="18">
         <f>$E$29/10</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <f>B6</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>140</v>
       </c>
@@ -2654,360 +2665,366 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="15">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42.75">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="21">
-        <v>5</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.75">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21" t="s">
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="21">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="13" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="42.75">
-      <c r="A13" s="21" t="s">
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="21">
-        <v>5</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="71.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <v>10</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>7</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="13" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="57">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21" t="s">
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="21">
-        <v>5</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="D15" s="16">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15">
         <v>3</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="13" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21" t="s">
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="21">
-        <v>5</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="21">
-        <v>5</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="16">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15">
         <v>0</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="16">
         <v>10</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="15">
         <v>10</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="21">
-        <v>5</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="D19" s="16">
+        <v>5</v>
+      </c>
+      <c r="E19" s="15">
         <v>3</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="85.5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>20</v>
       </c>
-      <c r="E20" s="20">
-        <v>5</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="15">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="71.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>10</v>
       </c>
-      <c r="E21" s="20">
-        <v>5</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="15">
+        <v>5</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="21">
-        <v>5</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="D22" s="16">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15">
         <v>2</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="13" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.5">
-      <c r="A23" s="21" t="s">
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="21">
-        <v>5</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="D23" s="16">
+        <v>5</v>
+      </c>
+      <c r="E23" s="15">
         <v>1</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="16">
         <v>3</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="15">
         <v>1</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="16">
         <v>2</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="15">
         <v>0</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="21">
-        <v>5</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="16">
+        <v>5</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" t="s">
         <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="D29" s="17">
+      <c r="B29" s="14"/>
+      <c r="D29" s="12">
         <f>SUM(D11:D25)</f>
         <v>100</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="14">
         <f>SUM(E11:E26)</f>
         <v>46</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="13" t="s">
         <v>150</v>
       </c>
     </row>
